--- a/public/template_level.xlsx
+++ b/public/template_level.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\PWL_POS\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30F9E0E8-6799-4E7E-846C-726701D92AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7379F9A2-E759-4B08-9C44-05D19203E3CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="3168" windowWidth="13800" windowHeight="7092" xr2:uid="{7CB450A2-1EAD-462E-8503-3EA408B143A7}"/>
+    <workbookView xWindow="4224" yWindow="4212" windowWidth="13800" windowHeight="7092" xr2:uid="{D8FF876B-5F33-4AC1-A29A-50C96EEF8082}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,24 +35,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>level kode</t>
+    <t>level_kode</t>
   </si>
   <si>
-    <t>level nama</t>
+    <t>level_nama</t>
   </si>
   <si>
-    <t>GUD</t>
+    <t>Gudang 3</t>
   </si>
   <si>
-    <t>Gudang1</t>
-  </si>
-  <si>
-    <t>GOD</t>
-  </si>
-  <si>
-    <t>Gudang2</t>
+    <t>GDA3</t>
   </si>
 </sst>
 </file>
@@ -403,14 +397,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{288FD74D-F223-4C8D-BA3B-5CC6C7445665}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16F77A1C-BA9B-4884-B7AC-B395DBD94EC6}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="20.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -422,18 +419,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
